--- a/resources/btc_stats.xlsx
+++ b/resources/btc_stats.xlsx
@@ -478,16 +478,16 @@
         <v>67549.734375</v>
       </c>
       <c r="D2" t="n">
-        <v>15315.30105102135</v>
+        <v>15556.57379705767</v>
       </c>
       <c r="E2" t="n">
-        <v>8599.919921999999</v>
+        <v>8664.668945000001</v>
       </c>
       <c r="F2" t="n">
-        <v>16893.34333758071</v>
+        <v>17047.82838561126</v>
       </c>
       <c r="G2" t="n">
-        <v>285385049.1213826</v>
+        <v>290628452.6652529</v>
       </c>
     </row>
     <row r="3">
@@ -503,16 +503,16 @@
         <v>68789.625</v>
       </c>
       <c r="D3" t="n">
-        <v>15739.11830255172</v>
+        <v>15982.76269532862</v>
       </c>
       <c r="E3" t="n">
-        <v>8773.549805000001</v>
+        <v>8836.5161135</v>
       </c>
       <c r="F3" t="n">
-        <v>17362.1000959659</v>
+        <v>17512.90988451357</v>
       </c>
       <c r="G3" t="n">
-        <v>301442519.7423393</v>
+        <v>306702012.6230932</v>
       </c>
     </row>
     <row r="4">
@@ -528,16 +528,16 @@
         <v>66382.0625</v>
       </c>
       <c r="D4" t="n">
-        <v>14853.17343505638</v>
+        <v>15087.92766895919</v>
       </c>
       <c r="E4" t="n">
-        <v>8333.637694999999</v>
+        <v>8394.783691500001</v>
       </c>
       <c r="F4" t="n">
-        <v>16356.71536301214</v>
+        <v>16508.60883706253</v>
       </c>
       <c r="G4" t="n">
-        <v>267542137.4665973</v>
+        <v>272534165.7351391</v>
       </c>
     </row>
     <row r="5">
@@ -553,16 +553,16 @@
         <v>67566.828125</v>
       </c>
       <c r="D5" t="n">
-        <v>15339.9940582682</v>
+        <v>15576.35411916322</v>
       </c>
       <c r="E5" t="n">
-        <v>8601.795898</v>
+        <v>8664.410156</v>
       </c>
       <c r="F5" t="n">
-        <v>16904.88476557117</v>
+        <v>17050.26147985278</v>
       </c>
       <c r="G5" t="n">
-        <v>285775128.9372403</v>
+        <v>290711416.5313514</v>
       </c>
     </row>
     <row r="6">
@@ -578,16 +578,16 @@
         <v>67566.828125</v>
       </c>
       <c r="D6" t="n">
-        <v>15339.9940582682</v>
+        <v>15576.35411916322</v>
       </c>
       <c r="E6" t="n">
-        <v>8601.795898</v>
+        <v>8664.410156</v>
       </c>
       <c r="F6" t="n">
-        <v>16904.88476557117</v>
+        <v>17050.26147985278</v>
       </c>
       <c r="G6" t="n">
-        <v>285775128.9372403</v>
+        <v>290711416.5313514</v>
       </c>
     </row>
     <row r="7">
@@ -603,16 +603,16 @@
         <v>350967941479</v>
       </c>
       <c r="D7" t="n">
-        <v>20972805398.64368</v>
+        <v>21091076418.14472</v>
       </c>
       <c r="E7" t="n">
-        <v>16338916796</v>
+        <v>16531574835.5</v>
       </c>
       <c r="F7" t="n">
-        <v>21207361530.88098</v>
+        <v>21199144177.7595</v>
       </c>
       <c r="G7" t="n">
-        <v>4.497521831014905e+20</v>
+        <v>4.494037138694346e+20</v>
       </c>
     </row>
   </sheetData>
